--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -176,7 +176,7 @@
 };</t>
   </si>
   <si>
-    <t>validate1
+    <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -186,19 +186,16 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0880
+validate_Text_Exists=VT200-0885
 };
 validate4
 {
-validate_Screenshot=VT200-0880
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0880.png
-};</t>
-  </si>
-  <si>
-    <t>validate1
+validate_Screenshot=VT200-0885
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -208,76 +205,13 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0882
+validate_Text_Exists=VT200-0886
 };
 validate4
 {
-validate_Screenshot=VT200-0882
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0882.png
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0885
-};
-validate4
-{
-validate_Screenshot=VT200-0885
+validate_Screenshot=VT200-0886
 };
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0886
-};
-validate4
-{
-validate_Screenshot=VT200-0886
-};
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0883
-};
-validate4
-{
-validate_Screenshot=VT200-0883-01
-validate_Screenshot=VT200-0883-02
-validate_Result=Status:
-validate_Result=ok
-validate_Result=DataUri:
-};</t>
   </si>
   <si>
     <t>validate1
@@ -313,29 +247,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0888
-};
-validate4
-{
-validate_Screenshot=VT200-0888-01
-validate_Screenshot=VT200-0888-02
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0888.png
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
 validate_Text_Exists=VT200-0889
 };
 validate4
@@ -388,73 +299,12 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0881
-};
-validate4
-{
-validate_Screenshot=VT200-0881-01
-validate_Screenshot=VT200-0881-02
-validate_Result=Status:
-validate_Result=ok
-validate_Result=DataUri:
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
 validate_Text_Exists=VT200-0891
 };
 validate4
 {
 validate_Screenshot=VT200-0891-01
 validate_Screenshot=VT200-0891-02
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0884
-};
-validate4
-{
-validate_Screenshot=VT200-0884
-validate_Result=0,0,278,591,65535,65535
-}
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0891
-};
-validate4
-{
-validate_Screenshot=VT200-0890-01
-validate_Screenshot=VT200-0890-02
 };</t>
   </si>
   <si>
@@ -530,40 +380,6 @@
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0878_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeNativeScreenshot(VT200-0878);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0879_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeNativeScreenshot(VT200-0879-01);
-wait(2);
-TakeNativeScreenshot(VT200-0879-02);
-SwitchApp(WEBVIEW);
 validate4;</t>
   </si>
   <si>
@@ -608,15 +424,151 @@
 validate1;
 link_Click(signature_test_link);
 validate2;
+SelectTestToRun(VT200_0885_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeNativeScreenshot(VT200-0885);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0886_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeNativeScreenshot(VT200-0886);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0887_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeNativeScreenshot(VT200-0887-01);
+ClickNativeIcon(signature_clear_xpath);
+wait(2);
+TakeNativeScreenshot(VT200-0887-02);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0893_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeNativeScreenshot(VT200-0893-01);
+wait(2);
+Rotate_Screen(potrait);
+wait(2);
+TakeNativeScreenshot(VT200-0893-02);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0892_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+ScrollPage(results_xpath);
+TakeScreenshot(VT200-0892);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0878_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200-0878);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0884_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200-0884);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
 SelectTestToRun(VT200_0882_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 SwitchApp(NATIVE_APP);
 DrawSignature(inlinesignature_view_xpath);
-TakeNativeScreenshot(VT200-0882);
-wait(2);
 SwitchApp(WEBVIEW);
+TakeScreenshot(VT200-0882);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0879_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200-0879-01);
+wait(4);
+TakeScreenshot(VT200-0879-02);
 wait(2);
 validate4;</t>
   </si>
@@ -631,11 +583,10 @@
 ClickRunTest(runtest_bottom_xpath);
 SwitchApp(NATIVE_APP);
 DrawSignature(inlinesignature_view_xpath);
-TakeNativeScreenshot(VT200-0883-01);
-wait(2);
 SwitchApp(WEBVIEW);
-wait(2);
-TakeNativeScreenshot(VT200-0883-02);
+TakeScreenshot(VT200-0883-01);
+wait(4);
+TakeScreenshot(VT200-0883-02);
 wait(2);
 validate4;</t>
   </si>
@@ -644,13 +595,15 @@
 validate1;
 link_Click(signature_test_link);
 validate2;
-SelectTestToRun(VT200_0884_string);
+SelectTestToRun(VT200_0889_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeNativeScreenshot(VT200-0884);
+TakeNativeScreenshot(VT200-0889-01);
+Lock_UnlockScreen(lock);
+Lock_UnlockScreen(unlock);
+wait(2);
+TakeNativeScreenshot(VT200-0889-02);
 validate4;</t>
   </si>
   <si>
@@ -658,52 +611,186 @@
 validate1;
 link_Click(signature_test_link);
 validate2;
-SelectTestToRun(VT200_0885_string);
+SelectTestToRun(VT200_0891_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0885);
-wait(2);
+TakeScreenshot(VT200-0891-01);
+Lock_UnlockScreen(lock);
+Lock_UnlockScreen(unlock);
+wait(2);
+TakeScreenshot(VT200-0891-02);
 validate4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0884
+};
+validate4
+{
+validate_Screenshot=VT200-0884
+}
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0882
+};
+validate4
+{
+validate_Screenshot=VT200-0882
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0882.jpg
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0880
+};
+validate4
+{
+validate_Screenshot=VT200-0880
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0880.jpg
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0883
+};
+validate4
+{
+validate_Screenshot=VT200-0883-01
+validate_Screenshot=VT200-0883-02
+validate_Result=Status:
+validate_Result=ok
+validate_Result=DataURI
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0881
+};
+validate4
+{
+validate_Screenshot=VT200-0881-01
+validate_Screenshot=VT200-0881-02
+validate_Result=Status:
+validate_Result=ok
+validate_Result=DataURI
+};</t>
   </si>
   <si>
     <t>wait(3);
 validate1;
 link_Click(signature_test_link);
 validate2;
-SelectTestToRun(VT200_0886_string);
+SelectTestToRun(VT200_0890_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0886);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0887_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0887-01);
-ClickNativeIcon(signature_clear_xpath);
-wait(2);
-TakeNativeScreenshot(VT200-0887-02);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
+TakeScreenshot(VT200-0890-01);
+press_Key(Home);
+wait(2);
+validate4;
+launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
+wait(2);
+TakeScreenshot(VT200-0890-02);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0890
+};
+validate4
+{
+validate_AppMinimized=homescreen
+};
+validate5
+{
+validate_Screenshot=VT200-0890-01
+validate_Screenshot=VT200-0890-02
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0888
+};
+validate4
+{
+validate_AppMinimized=homescreen
+};
+validate5
+{
+validate_Result=cancel
+};</t>
   </si>
   <si>
     <t>wait(3);
@@ -715,123 +802,11 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0888-01);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
 press_Key(Home);
-wait(2);
+validate4;
 launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
 wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-TakeNativeScreenshot(VT200-0888-02);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0889_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0889-01);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-Lock_UnlockScreen(lock);
-wait(2);
-Lock_UnlockScreen(unlock);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-TakeNativeScreenshot(VT200-0889-02);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0890_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeNativeScreenshot(VT200-0890-01);
-wait(2);
-press_Key(Home);
-wait(2);
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-TakeNativeScreenshot(VT200-0890-02);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0891_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeNativeScreenshot(VT200-0891-01);
-wait(2);
-Lock_UnlockScreen(lock);
-wait(2);
-Lock_UnlockScreen(unlock);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-TakeNativeScreenshot(VT200-0891-02);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0892_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-ScrollPage(results_xpath);
-TakeNativeScreenshot(VT200-0892);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0893_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0893-01);
-wait(2);
-Rotate_Screen(potrait);
-wait(2);
-TakeNativeScreenshot(VT200-0893-02);
-wait(2);
-validate4;</t>
+validate5;</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1109,9 +1084,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1423,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1455,7 +1427,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1482,7 +1454,9 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -1509,7 +1483,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -1534,7 +1510,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1537,9 @@
         <v>1</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="15" t="s">
         <v>23</v>
       </c>
@@ -1567,10 +1547,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -1584,18 +1564,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="14"/>
@@ -1609,18 +1591,20 @@
         <v>1</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="14"/>
@@ -1634,18 +1618,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="14"/>
@@ -1659,24 +1645,26 @@
         <v>1</v>
       </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="203.25" thickBot="1">
+    <row r="10" spans="1:11" ht="192" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1684,28 +1672,30 @@
         <v>1</v>
       </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="192" thickBot="1">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>1</v>
       </c>
       <c r="C11" s="21"/>
@@ -1715,22 +1705,22 @@
       <c r="E11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="192" thickBot="1">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>1</v>
       </c>
       <c r="C12" s="21"/>
@@ -1740,72 +1730,76 @@
       <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="248.25" thickBot="1">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>1</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>1</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="259.5" thickBot="1">
-      <c r="A14" s="27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="225.75" thickBot="1">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>1</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="248.25" thickBot="1">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>1</v>
       </c>
       <c r="C15" s="21"/>
@@ -1815,93 +1809,97 @@
       <c r="E15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="249" thickBot="1">
-      <c r="A16" s="27">
+    <row r="16" spans="1:11" ht="237" thickBot="1">
+      <c r="A16" s="26">
         <v>16</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>1</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="25">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" ht="237" thickBot="1">
-      <c r="A17" s="27">
+    <row r="17" spans="1:9" ht="192" thickBot="1">
+      <c r="A17" s="26">
         <v>17</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>1</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="180.75" thickBot="1">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>18</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>1</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="203.25" thickBot="1">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>19</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>1</v>
       </c>
       <c r="C19" s="21"/>
@@ -1909,16 +1907,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="25">
+        <v>39</v>
+      </c>
+      <c r="F19" s="24">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
@@ -1395,9 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1822,7 +1820,7 @@
     </row>
     <row r="16" spans="1:11" ht="237" thickBot="1">
       <c r="A16" s="26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
@@ -1847,7 +1845,7 @@
     </row>
     <row r="17" spans="1:9" ht="192" thickBot="1">
       <c r="A17" s="26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
@@ -1872,7 +1870,7 @@
     </row>
     <row r="18" spans="1:9" ht="180.75" thickBot="1">
       <c r="A18" s="26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
@@ -1897,7 +1895,7 @@
     </row>
     <row r="19" spans="1:9" ht="203.25" thickBot="1">
       <c r="A19" s="26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -281,9 +281,6 @@
 validate_Result=ImageUri:
 validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0879.png
 };</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
   <si>
     <t>Call takeFullScreen and rotate the device  landscape to portrait</t>
@@ -1395,15 +1392,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1462,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -1491,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -1518,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1545,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>37</v>
@@ -1572,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="14"/>
@@ -1599,10 +1598,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="14"/>
@@ -1626,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="14"/>
@@ -1653,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="14"/>
@@ -1680,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="14"/>
@@ -1707,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>33</v>
@@ -1732,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1757,15 +1756,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="21"/>
-      <c r="J13" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="225.75" thickBot="1">
       <c r="A14" s="26">
@@ -1785,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="17"/>
@@ -1811,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>36</v>
@@ -1836,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="I16" s="21"/>
     </row>
@@ -1861,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="21"/>
     </row>
@@ -1886,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="21"/>
     </row>
@@ -1905,16 +1902,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="24">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1933,9 +1930,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
@@ -247,29 +247,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0889
-};
-validate4
-{
-validate_Screenshot=VT200-0889-01
-validate_Screenshot=VT200-0889-02
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0889.png
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
 validate_Text_Exists=VT200-0879
 };
 validate4
@@ -484,21 +461,6 @@
 Rotate_Screen(potrait);
 wait(2);
 TakeNativeScreenshot(VT200-0893-02);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0892_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-ScrollPage(results_xpath);
-TakeScreenshot(VT200-0892);
 wait(2);
 validate4;</t>
   </si>
@@ -574,24 +536,6 @@
 validate1;
 link_Click(signature_test_link);
 validate2;
-SelectTestToRun(VT200_0883_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200-0883-01);
-wait(4);
-TakeScreenshot(VT200-0883-02);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
 SelectTestToRun(VT200_0889_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -727,6 +671,120 @@
 };</t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0890
+};
+validate4
+{
+validate_AppMinimized=homescreen
+};
+validate5
+{
+validate_Screenshot=VT200-0890-01
+validate_Screenshot=VT200-0890-02
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0888
+};
+validate4
+{
+validate_AppMinimized=homescreen
+};
+validate5
+{
+validate_Result=cancel
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0888_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+press_Key(Home);
+validate4;
+launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
+wait(2);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0883_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200-0883-01);
+wait(4);
+ScrollPage(runtest_top_xpath);
+TakeScreenshot(VT200-0883-02);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0892_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+ScrollPage(runtest_top_xpath);
+TakeScreenshot(VT200-0892);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0889
+};
+validate4
+{
+validate_Screenshot=VT200-0889-01
+validate_Screenshot=VT200-0889-02
+};</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(signature_test_link);
@@ -737,72 +795,9 @@
 ClickRunTest(runtest_bottom_xpath);
 TakeScreenshot(VT200-0890-01);
 press_Key(Home);
-wait(2);
 validate4;
 launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
-wait(2);
 TakeScreenshot(VT200-0890-02);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0890
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};
-validate5
-{
-validate_Screenshot=VT200-0890-01
-validate_Screenshot=VT200-0890-02
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0888
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};
-validate5
-{
-validate_Result=cancel
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0888_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-press_Key(Home);
-validate4;
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
-wait(2);
 validate5;</t>
   </si>
 </sst>
@@ -1393,7 +1388,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1461,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -1490,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -1517,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1544,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -1571,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="14"/>
@@ -1598,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="14"/>
@@ -1625,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="14"/>
@@ -1652,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="14"/>
@@ -1679,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="14"/>
@@ -1706,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>33</v>
@@ -1731,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1756,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -1782,15 +1777,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="248.25" thickBot="1">
+    <row r="15" spans="1:11" ht="192" thickBot="1">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -1808,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I15" s="21"/>
     </row>
@@ -1833,10 +1828,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I16" s="21"/>
     </row>
@@ -1858,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="21"/>
     </row>
@@ -1883,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="21"/>
     </row>
@@ -1902,16 +1897,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="24">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
@@ -324,151 +324,6 @@
 validate1;
 link_Click(signature_test_link);
 validate2;
-SelectTestToRun(VT200_0876_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0876);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0877_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-TakeNativeScreenshot(VT200-0877);
-ClickNativeIcon(signature_cancel_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0880_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0880);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0881_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0881-01);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-TakeNativeScreenshot(VT200-0881-02);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0885_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0885);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0886_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0886);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0887_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0887-01);
-ClickNativeIcon(signature_clear_xpath);
-wait(2);
-TakeNativeScreenshot(VT200-0887-02);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0893_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0893-01);
-wait(2);
-Rotate_Screen(potrait);
-wait(2);
-TakeNativeScreenshot(VT200-0893-02);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
 SelectTestToRun(VT200_0878_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -529,22 +384,6 @@
 wait(4);
 TakeScreenshot(VT200-0879-02);
 wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0889_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-TakeNativeScreenshot(VT200-0889-01);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
-TakeNativeScreenshot(VT200-0889-02);
 validate4;</t>
   </si>
   <si>
@@ -799,6 +638,167 @@
 launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
 TakeScreenshot(VT200-0890-02);
 validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0876_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT200-0876);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0877_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+TakeScreenshot(VT200-0877);
+ClickNativeIcon(signature_cancel_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0880_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT200-0880);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0881_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT200-0881-01);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+TakeScreenshot(VT200-0881-02);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0885_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeScreenshot(VT200-0885);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0886_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeScreenshot(VT200-0886);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0887_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT200-0887-01);
+ClickNativeIcon(signature_clear_xpath);
+wait(2);
+TakeScreenshot(VT200-0887-02);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0889_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+TakeScreenshot(VT200-0889-01);
+Lock_UnlockScreen(lock);
+Lock_UnlockScreen(unlock);
+wait(2);
+TakeScreenshot(VT200-0889-02);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0893_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeScreenshot(VT200-0893-01);
+wait(2);
+Rotate_Screen(potrait);
+wait(2);
+TakeScreenshot(VT200-0893-02);
+wait(2);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>36</v>
@@ -1566,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="14"/>
@@ -1593,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="14"/>
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="14"/>
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="14"/>
@@ -1674,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="14"/>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>33</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -1777,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="17"/>
@@ -1803,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I15" s="21"/>
     </row>
@@ -1828,10 +1828,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I16" s="21"/>
     </row>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>39</v>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>40</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_JS.xlsx
@@ -718,36 +718,6 @@
 validate1;
 link_Click(signature_test_link);
 validate2;
-SelectTestToRun(VT200_0885_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeScreenshot(VT200-0885);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0886_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeScreenshot(VT200-0886);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
 SelectTestToRun(VT200_0887_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -799,6 +769,38 @@
 TakeScreenshot(VT200-0893-02);
 wait(2);
 validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0885_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeScreenshot(VT200-0885);
+wait(2);
+validate4;
+Rotate_Screen(potrait);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0886_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeScreenshot(VT200-0886);
+wait(2);
+validate4;
+Rotate_Screen(potrait);</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1390,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1701,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>33</v>
@@ -1726,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1751,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -1803,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>56</v>
@@ -1903,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>40</v>
